--- a/khurana_cv/data/skills.xlsx
+++ b/khurana_cv/data/skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havis\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16143E17-862A-49C3-8440-7E79EA553C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A201150-9CD0-4236-BCD0-7F9FE418DA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>seq</t>
   </si>
   <si>
-    <t>R (Expert); Python (Intermediate); LaTeX (beginner)</t>
-  </si>
-  <si>
     <t>Worked with cross-sectional, cross-sectional with repeated time longitudinal, and text
 data; Data wrangling, visualization, and preparation for analyses</t>
   </si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>Languages</t>
+  </si>
+  <si>
+    <t>R (Expert); Python (Intermediate); LaTeX (Beginner)</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -457,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -471,10 +471,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
